--- a/results/pvalue_OFFSIDES_all_target_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_target_AUPR+AUROC.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>33.916</t>
+          <t>15.486</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30.423</t>
+          <t>17.543</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.953</t>
+          <t>15.284</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>37.72</t>
+          <t>14.661</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-11.981</t>
+          <t>18.687</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
